--- a/Test Data Driven/AI-Generated/TC7-Schedule Test Runs and View Reports.xlsx
+++ b/Test Data Driven/AI-Generated/TC7-Schedule Test Runs and View Reports.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,150 +446,18 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="128" customWidth="1" min="1" max="1"/>
-    <col width="78" customWidth="1" min="2" max="2"/>
-    <col width="53" customWidth="1" min="3" max="3"/>
-    <col width="53" customWidth="1" min="4" max="4"/>
-    <col width="29" customWidth="1" min="5" max="5"/>
-    <col width="31" customWidth="1" min="6" max="6"/>
-    <col width="31" customWidth="1" min="7" max="7"/>
-    <col width="31" customWidth="1" min="8" max="8"/>
-    <col width="12" customWidth="1" min="9" max="9"/>
-    <col width="41" customWidth="1" min="10" max="10"/>
-    <col width="31" customWidth="1" min="11" max="11"/>
-    <col width="28" customWidth="1" min="12" max="12"/>
-    <col width="96" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>button_closeAlert_class</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>button_closeAlert_class_1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>div_menuBackdrop_class</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>div_menuBackdrop_class_1</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>div_testSuites_internalText</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>div_testSuites_internalText_1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>div_testSuites_internalText_2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>div_testSuites_internalText_3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
           <t>input_Name</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>link_noDataDisplay_internalRoleLinkName</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>link_noDataDisplay_project_id</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>link_noDataDisplay_team_id</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>p_sessionInfo_class</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>go1475592160\ go1671063245"]:nth-child(1) [class="MuiButtonBase-root\ MuiIconButton-root\ MuiIconButton-sizeSmall\ css-1fubc2b</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>MuiButtonBase-root\ MuiIconButton-root\ MuiIconButton-sizeSmall\ css-1fubc2b</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>MuiBackdrop-root\ MuiBackdrop-invisible\ css-esi9ax</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>MuiBackdrop-root\ MuiBackdrop-invisible\ css-esi9ax</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>EHS-test-automation.git</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Katalon Cloud</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Uploaded Data</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Test Suites</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>E EcoEHS 2h 0m 48s Execution</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>1534644</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>1515252</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>MuiBox-root\ css-0"]:nth-child(1) [class="MuiTypography-root\ MuiTypography-body1\ css-1lpm9pj</t>
-        </is>
-      </c>
+      <c r="A2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Test Data Driven/AI-Generated/TC7-Schedule Test Runs and View Reports.xlsx
+++ b/Test Data Driven/AI-Generated/TC7-Schedule Test Runs and View Reports.xlsx
@@ -438,7 +438,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,18 +446,150 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="128" customWidth="1" min="1" max="1"/>
+    <col width="78" customWidth="1" min="2" max="2"/>
+    <col width="53" customWidth="1" min="3" max="3"/>
+    <col width="53" customWidth="1" min="4" max="4"/>
+    <col width="29" customWidth="1" min="5" max="5"/>
+    <col width="31" customWidth="1" min="6" max="6"/>
+    <col width="31" customWidth="1" min="7" max="7"/>
+    <col width="31" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="9" max="9"/>
+    <col width="41" customWidth="1" min="10" max="10"/>
+    <col width="31" customWidth="1" min="11" max="11"/>
+    <col width="28" customWidth="1" min="12" max="12"/>
+    <col width="96" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>button_closeAlert_class</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>button_closeAlert_class_1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>div_menuBackdrop_class</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>div_menuBackdrop_class_1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>div_testSuites_internalText</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>div_testSuites_internalText_1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>div_testSuites_internalText_2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>div_testSuites_internalText_3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>input_Name</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>link_noDataDisplay_internalRoleLinkName</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>link_noDataDisplay_project_id</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>link_noDataDisplay_team_id</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>p_sessionInfo_class</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>go1475592160\ go1671063245"]:nth-child(1) [class="MuiButtonBase-root\ MuiIconButton-root\ MuiIconButton-sizeSmall\ css-1fubc2b</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>MuiButtonBase-root\ MuiIconButton-root\ MuiIconButton-sizeSmall\ css-1fubc2b</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>MuiBackdrop-root\ MuiBackdrop-invisible\ css-esi9ax</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>MuiBackdrop-root\ MuiBackdrop-invisible\ css-esi9ax</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>EHS-test-automation.git</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Katalon Cloud</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Uploaded Data</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Test Suites</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>E EcoEHS 2h 0m 48s Execution</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1534644</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1515252</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>MuiBox-root\ css-0"]:nth-child(1) [class="MuiTypography-root\ MuiTypography-body1\ css-1lpm9pj</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
